--- a/templates/community/CEPLAS-data/Introduction_of_recognition_sites.xlsx
+++ b/templates/community/CEPLAS-data/Introduction_of_recognition_sites.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -143,13 +143,13 @@
     <t>Author Roles Term Source REF</t>
   </si>
   <si>
-    <t>Input [Source Name]</t>
+    <t>Input [Primer ID]</t>
   </si>
   <si>
     <t>Protocol REF</t>
   </si>
   <si>
-    <t>Parameter [Primer direction]</t>
+    <t>Characteristic [Primer direction]</t>
   </si>
   <si>
     <t>Term Source REF ()</t>
@@ -158,25 +158,7 @@
     <t>Term Accession Number ()</t>
   </si>
   <si>
-    <t>Parameter [Sequence]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NCIT:C25673)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NCIT:C25673)</t>
-  </si>
-  <si>
-    <t>Parameter [Enzyme]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NCIT:C16554)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NCIT:C16554)</t>
-  </si>
-  <si>
-    <t>Parameter [Recognition Site]</t>
+    <t>Characteristic [Primer Sequence]</t>
   </si>
   <si>
     <t xml:space="preserve">Term Source REF () </t>
@@ -185,7 +167,16 @@
     <t xml:space="preserve">Term Accession Number () </t>
   </si>
   <si>
-    <t>Parameter [Cutting Site]</t>
+    <t>Parameter [restriction enzyme]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0000732)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0000732)</t>
+  </si>
+  <si>
+    <t>Parameter [Recognition Site Sequence]</t>
   </si>
   <si>
     <t xml:space="preserve">Term Source REF ()  </t>
@@ -194,7 +185,19 @@
     <t xml:space="preserve">Term Accession Number ()  </t>
   </si>
   <si>
+    <t>Parameter [Cutting Site Sequence]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Source REF ()   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Accession Number ()   </t>
+  </si>
+  <si>
     <t>Output [Sample Name]</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -250,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:R1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:R2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -272,23 +275,23 @@
     <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="Input [Primer ID]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Protocol REF" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Parameter [Primer direction]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Characteristic [Primer direction]" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Source REF ()" totalsRowFunction="none"/>
     <tableColumn id="5" name="Term Accession Number ()" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Parameter [Sequence]" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Source REF (NCIT:C25673)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Term Accession Number (NCIT:C25673)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Parameter [Enzyme]" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Source REF (NCIT:C16554)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Term Accession Number (NCIT:C16554)" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Parameter [Recognition Site]" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Source REF () " totalsRowFunction="none"/>
-    <tableColumn id="14" name="Term Accession Number () " totalsRowFunction="none"/>
-    <tableColumn id="15" name="Parameter [Cutting Site]" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Source REF ()  " totalsRowFunction="none"/>
-    <tableColumn id="17" name="Term Accession Number ()  " totalsRowFunction="none"/>
+    <tableColumn id="6" name="Characteristic [Primer Sequence]" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Source REF () " totalsRowFunction="none"/>
+    <tableColumn id="8" name="Term Accession Number () " totalsRowFunction="none"/>
+    <tableColumn id="9" name="Parameter [restriction enzyme]" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Source REF (OBI:0000732)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Term Accession Number (OBI:0000732)" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Parameter [Recognition Site Sequence]" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Source REF ()  " totalsRowFunction="none"/>
+    <tableColumn id="14" name="Term Accession Number ()  " totalsRowFunction="none"/>
+    <tableColumn id="15" name="Parameter [Cutting Site Sequence]" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Source REF ()   " totalsRowFunction="none"/>
+    <tableColumn id="17" name="Term Accession Number ()   " totalsRowFunction="none"/>
     <tableColumn id="18" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -792,7 +795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -849,6 +852,62 @@
       </c>
       <c r="R1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
